--- a/Doc/v3/portfolioReturn.xlsx
+++ b/Doc/v3/portfolioReturn.xlsx
@@ -219,10 +219,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>return!$A$2:$A$116</c:f>
+              <c:f>return!$A$2:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>42374.704861111109</c:v>
                 </c:pt>
@@ -555,28 +555,16 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>42530.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>42531.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>42534.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>42535.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>42536.704861111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>return!$B$2:$B$116</c:f>
+              <c:f>return!$B$2:$B$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -908,18 +896,6 @@
                   <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -955,10 +931,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>return!$A$2:$A$116</c:f>
+              <c:f>return!$A$2:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>42374.704861111109</c:v>
                 </c:pt>
@@ -1291,28 +1267,16 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>42530.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>42531.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>42534.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>42535.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>42536.704861111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>return!$C$2:$C$116</c:f>
+              <c:f>return!$C$2:$C$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1644,18 +1608,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1672,11 +1624,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="197328464"/>
-        <c:axId val="196990736"/>
+        <c:axId val="198474528"/>
+        <c:axId val="197369016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="197328464"/>
+        <c:axId val="198474528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,14 +1671,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196990736"/>
+        <c:crossAx val="197369016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="196990736"/>
+        <c:axId val="197369016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197328464"/>
+        <c:crossAx val="198474528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1937,10 +1889,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>return!$A$2:$A$116</c:f>
+              <c:f>return!$A$2:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>42374.704861111109</c:v>
                 </c:pt>
@@ -2273,28 +2225,16 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>42530.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>42531.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>42534.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>42535.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>42536.704861111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>return!$D$2:$D$116</c:f>
+              <c:f>return!$D$2:$D$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2626,18 +2566,6 @@
                   <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2654,11 +2582,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="195837464"/>
-        <c:axId val="196518152"/>
+        <c:axId val="171988656"/>
+        <c:axId val="197803544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="195837464"/>
+        <c:axId val="171988656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,14 +2629,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196518152"/>
+        <c:crossAx val="197803544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="196518152"/>
+        <c:axId val="197803544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,7 +2687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195837464"/>
+        <c:crossAx val="171988656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2887,10 +2815,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>return!$A$2:$A$116</c:f>
+              <c:f>return!$A$2:$A$112</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>42374.704861111109</c:v>
                 </c:pt>
@@ -3223,28 +3151,16 @@
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>42530.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>42531.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>42534.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>42535.704861111109</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>42536.704861111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>return!$I$2:$I$116</c:f>
+              <c:f>return!$I$2:$I$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="111"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3255,340 +3171,328 @@
                   <c:v>8.8607500000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1342499999999993E-2</c:v>
+                  <c:v>9.1342500000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1342499999999993E-2</c:v>
+                  <c:v>9.1342500000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6593333333370002E-2</c:v>
+                  <c:v>9.6593333333340012E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6593333333370002E-2</c:v>
+                  <c:v>9.6593333333340012E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6593333333370002E-2</c:v>
+                  <c:v>9.6593333333340012E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6593333333370002E-2</c:v>
+                  <c:v>9.6593333333340012E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1159933333337</c:v>
+                  <c:v>0.11599333333334001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1159933333337</c:v>
+                  <c:v>0.11599333333334001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1159933333337</c:v>
+                  <c:v>0.11599333333334001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13392666666630001</c:v>
+                  <c:v>0.13392666666668002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.13392666666630001</c:v>
+                  <c:v>0.13392666666668002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15767749999970002</c:v>
+                  <c:v>0.15767750000005001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.15767749999970002</c:v>
+                  <c:v>0.15767750000005001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.15767749999970002</c:v>
+                  <c:v>0.15767750000005001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18017083333299999</c:v>
+                  <c:v>0.18017083333345002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.19146249999970003</c:v>
+                  <c:v>0.19146250000011003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.19146249999970003</c:v>
+                  <c:v>0.19146250000011003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.19146249999970003</c:v>
+                  <c:v>0.19146250000011003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20913166666640004</c:v>
+                  <c:v>0.20913166666681005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.20913166666640004</c:v>
+                  <c:v>0.20913166666681005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20913166666640004</c:v>
+                  <c:v>0.20913166666681005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.20913166666640004</c:v>
+                  <c:v>0.20913166666681005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2138974999996</c:v>
+                  <c:v>0.21389750000015004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.23500583333300001</c:v>
+                  <c:v>0.23500583333345004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.27482916666637003</c:v>
+                  <c:v>0.24161833333346006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.27482916666637003</c:v>
+                  <c:v>0.24161833333346006</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.27482916666637003</c:v>
+                  <c:v>0.24161833333346006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.31530749999969998</c:v>
+                  <c:v>0.28209666666676003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.31530749999969998</c:v>
+                  <c:v>0.28209666666676003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.31796749999969998</c:v>
+                  <c:v>0.28475666666676003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.31796749999969998</c:v>
+                  <c:v>0.28475666666676003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.31796749999969998</c:v>
+                  <c:v>0.28475666666676003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.33177666666632999</c:v>
+                  <c:v>0.29856583333342002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.33177666666632999</c:v>
+                  <c:v>0.29856583333342002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.33177666666632999</c:v>
+                  <c:v>0.29856583333342002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3570933333331</c:v>
+                  <c:v>0.32388250000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3570933333331</c:v>
+                  <c:v>0.32388250000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.36565333333299999</c:v>
+                  <c:v>0.33244250000001002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.36848416666632999</c:v>
+                  <c:v>0.33527333333334003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.36848416666632999</c:v>
+                  <c:v>0.33527333333334003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.36848416666632999</c:v>
+                  <c:v>0.33527333333334003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.36848416666632999</c:v>
+                  <c:v>0.33527333333334003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.76516666666632993</c:v>
+                  <c:v>0.73195583333334002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.76516666666632993</c:v>
+                  <c:v>0.73195583333334002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.76516666666632993</c:v>
+                  <c:v>0.73195583333334002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.76516666666632993</c:v>
+                  <c:v>0.73195583333334002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.81866083333299988</c:v>
+                  <c:v>0.78545000000004006</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.81866083333299988</c:v>
+                  <c:v>0.78545000000004006</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.84324333333299983</c:v>
+                  <c:v>0.81003250000004001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.84324333333299983</c:v>
+                  <c:v>0.81003250000004001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.92388249999899996</c:v>
+                  <c:v>0.89067166666653996</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.95043583333269988</c:v>
+                  <c:v>0.91722499999994</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.95043583333269988</c:v>
+                  <c:v>0.91722499999994</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.0053124999990002</c:v>
+                  <c:v>0.97210166666660003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.0053124999990002</c:v>
+                  <c:v>0.97210166666660003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0053124999990002</c:v>
+                  <c:v>0.97210166666660003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0053124999990002</c:v>
+                  <c:v>0.97210166666660003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0053124999990002</c:v>
+                  <c:v>0.97210166666660003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.0053124999990002</c:v>
+                  <c:v>0.97210166666660003</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0053124999990002</c:v>
+                  <c:v>0.97210166666660003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.0053124999990002</c:v>
+                  <c:v>0.97210166666660003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.011252499999</c:v>
+                  <c:v>0.97804166666659997</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.011252499999</c:v>
+                  <c:v>0.97804166666659997</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.011252499999</c:v>
+                  <c:v>0.97804166666659997</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.011252499999</c:v>
+                  <c:v>0.97804166666659997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.011252499999</c:v>
+                  <c:v>0.97804166666659997</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.011252499999</c:v>
+                  <c:v>0.97804166666659997</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.011252499999</c:v>
+                  <c:v>0.97804166666659997</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.011252499999</c:v>
+                  <c:v>0.97804166666659997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.011252499999</c:v>
+                  <c:v>0.97804166666659997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.011252499999</c:v>
+                  <c:v>0.97804166666659997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.011252499999</c:v>
+                  <c:v>0.97804166666659997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.010619166666</c:v>
+                  <c:v>0.97740833333326693</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.010619166666</c:v>
+                  <c:v>0.97740833333326693</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.010619166666</c:v>
+                  <c:v>0.97740833333326693</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.010619166666</c:v>
+                  <c:v>0.97740833333326693</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.010619166666</c:v>
+                  <c:v>0.97740833333326693</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.010619166666</c:v>
+                  <c:v>0.97740833333326693</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.010619166666</c:v>
+                  <c:v>0.97740833333326693</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.96518583333200014</c:v>
+                  <c:v>0.93197499999996691</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.96518583333200014</c:v>
+                  <c:v>0.93197499999996691</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.2058158333319999</c:v>
+                  <c:v>1.172604999999967</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.2537583333320002</c:v>
+                  <c:v>1.2205474999998671</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2537583333320002</c:v>
+                  <c:v>1.2205474999998671</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.2537583333320002</c:v>
+                  <c:v>1.2205474999998671</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.2537583333320002</c:v>
+                  <c:v>1.2205474999998671</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.2537583333320002</c:v>
+                  <c:v>1.2205474999998671</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.2537583333320002</c:v>
+                  <c:v>1.2205474999998671</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.2540583333320001</c:v>
+                  <c:v>1.2208474999998671</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.2540583333320001</c:v>
+                  <c:v>1.2208474999998671</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.2540583333320001</c:v>
+                  <c:v>1.2208474999998671</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.2581949999990001</c:v>
+                  <c:v>1.2249841666665371</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.2581949999990001</c:v>
+                  <c:v>1.2249841666665371</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.2581949999990001</c:v>
+                  <c:v>1.2249841666665371</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.2581949999990001</c:v>
+                  <c:v>1.2249841666665371</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.2581949999990001</c:v>
+                  <c:v>1.2249841666665371</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.2613949999990002</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.2613949999990002</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.2613949999990002</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.2613949999990002</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.2613949999990002</c:v>
+                  <c:v>1.2281841666665372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3604,11 +3508,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="197294184"/>
-        <c:axId val="197049424"/>
+        <c:axId val="197483592"/>
+        <c:axId val="199646752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="197294184"/>
+        <c:axId val="197483592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3651,14 +3555,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197049424"/>
+        <c:crossAx val="199646752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="197049424"/>
+        <c:axId val="199646752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3709,7 +3613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197294184"/>
+        <c:crossAx val="197483592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5431,15 +5335,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5784,10 +5688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5837,31 +5742,31 @@
         <v>42374.704861111109</v>
       </c>
       <c r="B2">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>10</v>
       </c>
       <c r="D2">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>10</v>
       </c>
       <c r="E2">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A2, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A2, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I2">
@@ -5874,35 +5779,35 @@
         <v>42375.704861111109</v>
       </c>
       <c r="B3">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>80</v>
       </c>
       <c r="D3">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>80</v>
       </c>
       <c r="E3">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A3, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A3, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A3, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A3, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A3, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A3, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A3, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A3, '3.11'!$A$2:$I$70,9),0))</f>
+        <f>SUM(G3,H3,I2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5911,35 +5816,35 @@
         <v>42376.704861111109</v>
       </c>
       <c r="B4">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>265.82249999999999</v>
       </c>
       <c r="G4">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>8.8607500000000006E-2</v>
       </c>
       <c r="I4">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A4, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A4, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A4, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A4, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A4, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A4, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A4, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A4, '3.11'!$A$2:$I$70,9),0))</f>
+        <f t="shared" ref="I4:I67" si="0">SUM(G4,H4,I3)</f>
         <v>8.8607500000000006E-2</v>
       </c>
     </row>
@@ -5948,36 +5853,36 @@
         <v>42377.704861111109</v>
       </c>
       <c r="B5">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C5">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>8.2050000000000001</v>
       </c>
       <c r="G5">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>2.735E-3</v>
       </c>
       <c r="I5">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A5, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A5, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A5, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A5, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A5, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A5, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A5, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A5, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>9.1342499999999993E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.1342500000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5985,36 +5890,36 @@
         <v>42380.704861111109</v>
       </c>
       <c r="B6">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A6, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A6, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A6, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A6, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A6, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A6, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A6, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A6, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>9.1342499999999993E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.1342500000000007E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6022,36 +5927,36 @@
         <v>42381.704861111109</v>
       </c>
       <c r="B7">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>8.0449999999999999</v>
       </c>
       <c r="F7">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>7.7074999999999996</v>
       </c>
       <c r="G7">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>2.6816666666700001E-3</v>
       </c>
       <c r="H7">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>2.5691666666699999E-3</v>
       </c>
       <c r="I7">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A7, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A7, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A7, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A7, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A7, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A7, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A7, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A7, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>9.6593333333370002E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.6593333333340012E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6059,36 +5964,36 @@
         <v>42382.704861111109</v>
       </c>
       <c r="B8">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A8, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A8, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A8, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A8, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A8, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A8, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A8, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A8, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>9.6593333333370002E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.6593333333340012E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6096,36 +6001,36 @@
         <v>42383.704861111109</v>
       </c>
       <c r="B9">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C9">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A9, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A9, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A9, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A9, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A9, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A9, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A9, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A9, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>9.6593333333370002E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.6593333333340012E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6133,36 +6038,36 @@
         <v>42384.704861111109</v>
       </c>
       <c r="B10">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C10">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>40</v>
       </c>
       <c r="D10">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>40</v>
       </c>
       <c r="E10">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A10, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A10, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A10, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A10, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A10, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A10, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A10, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A10, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>9.6593333333370002E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.6593333333340012E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6170,36 +6075,36 @@
         <v>42387.538194444445</v>
       </c>
       <c r="B11">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C11">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>58.2</v>
       </c>
       <c r="G11">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="I11">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A11, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A11, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A11, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A11, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A11, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A11, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A11, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A11, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.1159933333337</v>
+        <f t="shared" si="0"/>
+        <v>0.11599333333334001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6207,36 +6112,36 @@
         <v>42388.704861111109</v>
       </c>
       <c r="B12">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C12">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A12, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A12, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A12, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A12, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A12, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A12, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A12, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A12, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.1159933333337</v>
+        <f t="shared" si="0"/>
+        <v>0.11599333333334001</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6244,36 +6149,36 @@
         <v>42389.704861111109</v>
       </c>
       <c r="B13">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>80</v>
       </c>
       <c r="D13">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>80</v>
       </c>
       <c r="E13">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A13, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A13, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A13, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A13, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A13, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A13, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A13, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A13, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.1159933333337</v>
+        <f t="shared" si="0"/>
+        <v>0.11599333333334001</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6281,36 +6186,36 @@
         <v>42390.704861111109</v>
       </c>
       <c r="B14">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>53.8</v>
       </c>
       <c r="G14">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>1.7933333333340001E-2</v>
       </c>
       <c r="I14">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A14, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A14, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A14, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A14, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A14, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A14, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A14, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A14, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.13392666666630001</v>
+        <f t="shared" si="0"/>
+        <v>0.13392666666668002</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6318,36 +6223,36 @@
         <v>42391.704861111109</v>
       </c>
       <c r="B15">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-90</v>
       </c>
       <c r="C15">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-90</v>
       </c>
       <c r="E15">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A15, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A15, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A15, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A15, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A15, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A15, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A15, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A15, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.13392666666630001</v>
+        <f t="shared" si="0"/>
+        <v>0.13392666666668002</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6355,36 +6260,36 @@
         <v>42394.704861111109</v>
       </c>
       <c r="B16">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D16">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>71.252499999999998</v>
       </c>
       <c r="F16">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>2.3750833333370001E-2</v>
       </c>
       <c r="H16">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A16, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A16, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A16, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A16, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A16, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A16, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A16, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A16, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.15767749999970002</v>
+        <f t="shared" si="0"/>
+        <v>0.15767750000005001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6392,36 +6297,36 @@
         <v>42395.704861111109</v>
       </c>
       <c r="B17">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A17, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A17, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A17, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A17, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A17, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A17, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A17, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A17, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.15767749999970002</v>
+        <f t="shared" si="0"/>
+        <v>0.15767750000005001</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6429,36 +6334,36 @@
         <v>42396.704861111109</v>
       </c>
       <c r="B18">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C18">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D18">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F18">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A18, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A18, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A18, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A18, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A18, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A18, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A18, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A18, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.15767749999970002</v>
+        <f t="shared" si="0"/>
+        <v>0.15767750000005001</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6466,36 +6371,36 @@
         <v>42397.704861111109</v>
       </c>
       <c r="B19">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-20</v>
       </c>
       <c r="C19">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D19">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-20</v>
       </c>
       <c r="E19">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>67.48</v>
       </c>
       <c r="F19">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>2.2493333333399999E-2</v>
       </c>
       <c r="H19">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A19, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A19, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A19, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A19, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A19, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A19, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A19, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A19, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.18017083333299999</v>
+        <f t="shared" si="0"/>
+        <v>0.18017083333345002</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6503,36 +6408,36 @@
         <v>42398.704861111109</v>
       </c>
       <c r="B20">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C20">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D20">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>33.875</v>
       </c>
       <c r="F20">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>1.129166666666E-2</v>
       </c>
       <c r="H20">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A20, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A20, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A20, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A20, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A20, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A20, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A20, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A20, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.19146249999970003</v>
+        <f t="shared" si="0"/>
+        <v>0.19146250000011003</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6540,36 +6445,36 @@
         <v>42401.704861111109</v>
       </c>
       <c r="B21">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C21">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D21">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F21">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I21">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A21, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A21, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A21, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A21, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A21, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A21, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A21, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A21, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.19146249999970003</v>
+        <f t="shared" si="0"/>
+        <v>0.19146250000011003</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6577,36 +6482,36 @@
         <v>42402.704861111109</v>
       </c>
       <c r="B22">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>70</v>
       </c>
       <c r="D22">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>70</v>
       </c>
       <c r="E22">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H22">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A22, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A22, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A22, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A22, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A22, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A22, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A22, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A22, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.19146249999970003</v>
+        <f t="shared" si="0"/>
+        <v>0.19146250000011003</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6614,36 +6519,36 @@
         <v>42403.704861111109</v>
       </c>
       <c r="B23">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>53.0075</v>
       </c>
       <c r="G23">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>1.7669166666700001E-2</v>
       </c>
       <c r="I23">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A23, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A23, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A23, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A23, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A23, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A23, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A23, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A23, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.20913166666640004</v>
+        <f t="shared" si="0"/>
+        <v>0.20913166666681005</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6651,36 +6556,36 @@
         <v>42404.704861111109</v>
       </c>
       <c r="B24">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C24">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A24, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A24, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A24, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A24, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A24, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A24, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A24, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A24, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.20913166666640004</v>
+        <f t="shared" si="0"/>
+        <v>0.20913166666681005</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6688,36 +6593,36 @@
         <v>42405.704861111109</v>
       </c>
       <c r="B25">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C25">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D25">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H25">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A25, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A25, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A25, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A25, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A25, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A25, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A25, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A25, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.20913166666640004</v>
+        <f t="shared" si="0"/>
+        <v>0.20913166666681005</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6725,36 +6630,36 @@
         <v>42408.704861111109</v>
       </c>
       <c r="B26">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C26">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D26">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A26, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A26, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A26, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A26, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A26, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A26, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A26, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A26, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.20913166666640004</v>
+        <f t="shared" si="0"/>
+        <v>0.20913166666681005</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6762,36 +6667,36 @@
         <v>42409.704861111109</v>
       </c>
       <c r="B27">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C27">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>40</v>
       </c>
       <c r="D27">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>40</v>
       </c>
       <c r="E27">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>14.297499999999999</v>
       </c>
       <c r="G27">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>4.7658333333400003E-3</v>
       </c>
       <c r="I27">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A27, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A27, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A27, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A27, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A27, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A27, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A27, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A27, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.2138974999996</v>
+        <f t="shared" si="0"/>
+        <v>0.21389750000015004</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6799,36 +6704,36 @@
         <v>42410.704861111109</v>
       </c>
       <c r="B28">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C28">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>20</v>
       </c>
       <c r="D28">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>20</v>
       </c>
       <c r="E28">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>63.325000000000003</v>
       </c>
       <c r="G28">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>2.1108333333300002E-2</v>
       </c>
       <c r="I28">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A28, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A28, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A28, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A28, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A28, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A28, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A28, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A28, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.23500583333300001</v>
+        <f t="shared" si="0"/>
+        <v>0.23500583333345004</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6836,36 +6741,36 @@
         <v>42411.704861111109</v>
       </c>
       <c r="B29">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C29">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F29">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>19.837499999999999</v>
       </c>
       <c r="G29">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>6.6125000000100001E-3</v>
       </c>
       <c r="I29">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.27482916666637003</v>
+        <f t="shared" si="0"/>
+        <v>0.24161833333346006</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6873,36 +6778,36 @@
         <v>42412.704861111109</v>
       </c>
       <c r="B30">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-20</v>
       </c>
       <c r="C30">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-20</v>
       </c>
       <c r="E30">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G30">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A30, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A30, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A30, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A30, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A30, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A30, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A30, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A30, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.27482916666637003</v>
+        <f t="shared" si="0"/>
+        <v>0.24161833333346006</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6910,36 +6815,36 @@
         <v>42415.538194444445</v>
       </c>
       <c r="B31">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-40</v>
       </c>
       <c r="C31">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D31">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-40</v>
       </c>
       <c r="E31">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F31">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H31">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A31, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A31, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A31, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A31, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A31, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A31, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A31, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A31, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.27482916666637003</v>
+        <f t="shared" si="0"/>
+        <v>0.24161833333346006</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6947,36 +6852,36 @@
         <v>42416.704861111109</v>
       </c>
       <c r="B32">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C32">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D32">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>121.435</v>
       </c>
       <c r="F32">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>4.0478333333299997E-2</v>
       </c>
       <c r="H32">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A32, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A32, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A32, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A32, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A32, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A32, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A32, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A32, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.31530749999969998</v>
+        <f t="shared" si="0"/>
+        <v>0.28209666666676003</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6984,36 +6889,36 @@
         <v>42417.704861111109</v>
       </c>
       <c r="B33">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C33">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D33">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A33, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A33, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A33, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A33, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A33, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A33, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A33, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A33, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.31530749999969998</v>
+        <f t="shared" si="0"/>
+        <v>0.28209666666676003</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7021,36 +6926,36 @@
         <v>42418.704861111109</v>
       </c>
       <c r="B34">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C34">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D34">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>7.98</v>
       </c>
       <c r="F34">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>2.66E-3</v>
       </c>
       <c r="H34">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A34, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A34, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A34, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A34, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A34, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A34, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A34, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A34, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.31796749999969998</v>
+        <f t="shared" si="0"/>
+        <v>0.28475666666676003</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7058,36 +6963,36 @@
         <v>42419.704861111109</v>
       </c>
       <c r="B35">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C35">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H35">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A35, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A35, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A35, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A35, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A35, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A35, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A35, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A35, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.31796749999969998</v>
+        <f t="shared" si="0"/>
+        <v>0.28475666666676003</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7095,36 +7000,36 @@
         <v>42422.600694444445</v>
       </c>
       <c r="B36">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C36">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D36">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G36">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H36">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I36">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A36, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A36, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A36, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A36, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A36, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A36, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A36, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A36, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.31796749999969998</v>
+        <f t="shared" si="0"/>
+        <v>0.28475666666676003</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7132,36 +7037,36 @@
         <v>42423.704861111109</v>
       </c>
       <c r="B37">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C37">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D37">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>41.427500000000002</v>
       </c>
       <c r="F37">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G37">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>1.3809166666659999E-2</v>
       </c>
       <c r="H37">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I37">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A37, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A37, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A37, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A37, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A37, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A37, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A37, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A37, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.33177666666632999</v>
+        <f t="shared" si="0"/>
+        <v>0.29856583333342002</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7169,36 +7074,36 @@
         <v>42424.704861111109</v>
       </c>
       <c r="B38">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C38">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D38">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H38">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I38">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A38, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A38, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A38, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A38, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A38, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A38, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A38, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A38, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.33177666666632999</v>
+        <f t="shared" si="0"/>
+        <v>0.29856583333342002</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7206,36 +7111,36 @@
         <v>42425.704861111109</v>
       </c>
       <c r="B39">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-40</v>
       </c>
       <c r="C39">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D39">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-40</v>
       </c>
       <c r="E39">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F39">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G39">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H39">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I39">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A39, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A39, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A39, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A39, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A39, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A39, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A39, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A39, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.33177666666632999</v>
+        <f t="shared" si="0"/>
+        <v>0.29856583333342002</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7243,36 +7148,36 @@
         <v>42426.704861111109</v>
       </c>
       <c r="B40">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C40">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D40">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E40">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>75.95</v>
       </c>
       <c r="F40">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G40">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>2.5316666666599999E-2</v>
       </c>
       <c r="H40">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I40">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A40, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A40, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A40, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A40, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A40, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A40, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A40, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A40, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.3570933333331</v>
+        <f t="shared" si="0"/>
+        <v>0.32388250000002</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7280,36 +7185,36 @@
         <v>42429.704861111109</v>
       </c>
       <c r="B41">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C41">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D41">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E41">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F41">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G41">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H41">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I41">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A41, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A41, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A41, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A41, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A41, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A41, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A41, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A41, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.3570933333331</v>
+        <f t="shared" si="0"/>
+        <v>0.32388250000002</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7317,36 +7222,36 @@
         <v>42430.704861111109</v>
       </c>
       <c r="B42">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-30</v>
       </c>
       <c r="C42">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D42">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-30</v>
       </c>
       <c r="E42">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>25.68</v>
       </c>
       <c r="F42">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G42">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>8.5599999999899992E-3</v>
       </c>
       <c r="H42">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I42">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A42, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A42, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A42, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A42, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A42, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A42, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A42, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A42, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.36565333333299999</v>
+        <f t="shared" si="0"/>
+        <v>0.33244250000001002</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7354,36 +7259,36 @@
         <v>42431.704861111109</v>
       </c>
       <c r="B43">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-60</v>
       </c>
       <c r="C43">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D43">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-60</v>
       </c>
       <c r="E43">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F43">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>8.4924999999999997</v>
       </c>
       <c r="G43">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H43">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>2.8308333333299999E-3</v>
       </c>
       <c r="I43">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A43, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A43, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A43, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A43, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A43, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A43, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A43, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A43, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.36848416666632999</v>
+        <f t="shared" si="0"/>
+        <v>0.33527333333334003</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7391,36 +7296,36 @@
         <v>42432.704861111109</v>
       </c>
       <c r="B44">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-60</v>
       </c>
       <c r="C44">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D44">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-60</v>
       </c>
       <c r="E44">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F44">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H44">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I44">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A44, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A44, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A44, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A44, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A44, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A44, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A44, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A44, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.36848416666632999</v>
+        <f t="shared" si="0"/>
+        <v>0.33527333333334003</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7428,36 +7333,36 @@
         <v>42433.704861111109</v>
       </c>
       <c r="B45">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-300</v>
       </c>
       <c r="C45">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D45">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-300</v>
       </c>
       <c r="E45">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F45">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G45">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H45">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I45">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A45, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A45, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A45, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A45, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A45, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A45, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A45, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A45, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.36848416666632999</v>
+        <f t="shared" si="0"/>
+        <v>0.33527333333334003</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7465,36 +7370,36 @@
         <v>42436.704861111109</v>
       </c>
       <c r="B46">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-1200</v>
       </c>
       <c r="C46">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D46">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-1200</v>
       </c>
       <c r="E46">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F46">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G46">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H46">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I46">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A46, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A46, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A46, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A46, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A46, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A46, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A46, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A46, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.36848416666632999</v>
+        <f t="shared" si="0"/>
+        <v>0.33527333333334003</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7502,36 +7407,36 @@
         <v>42437.704861111109</v>
       </c>
       <c r="B47">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-80</v>
       </c>
       <c r="C47">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D47">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-80</v>
       </c>
       <c r="E47">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>1190.0474999999999</v>
       </c>
       <c r="F47">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G47">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0.39668249999999999</v>
       </c>
       <c r="H47">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I47">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A47, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A47, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A47, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A47, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A47, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A47, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A47, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A47, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.76516666666632993</v>
+        <f t="shared" si="0"/>
+        <v>0.73195583333334002</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7539,36 +7444,36 @@
         <v>42438.704861111109</v>
       </c>
       <c r="B48">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-160</v>
       </c>
       <c r="C48">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D48">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-160</v>
       </c>
       <c r="E48">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F48">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G48">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H48">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I48">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A48, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A48, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A48, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A48, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A48, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A48, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A48, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A48, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.76516666666632993</v>
+        <f t="shared" si="0"/>
+        <v>0.73195583333334002</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7576,36 +7481,36 @@
         <v>42439.704861111109</v>
       </c>
       <c r="B49">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-160</v>
       </c>
       <c r="C49">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D49">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-160</v>
       </c>
       <c r="E49">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F49">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G49">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H49">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I49">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A49, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A49, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A49, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A49, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A49, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A49, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A49, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A49, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.76516666666632993</v>
+        <f t="shared" si="0"/>
+        <v>0.73195583333334002</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7613,36 +7518,36 @@
         <v>42440.704861111109</v>
       </c>
       <c r="B50">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-170</v>
       </c>
       <c r="C50">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D50">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-170</v>
       </c>
       <c r="E50">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F50">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G50">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H50">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I50">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A50, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A50, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A50, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A50, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A50, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A50, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A50, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A50, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.76516666666632993</v>
+        <f t="shared" si="0"/>
+        <v>0.73195583333334002</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7650,36 +7555,36 @@
         <v>42443.704861111109</v>
       </c>
       <c r="B51">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C51">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>40</v>
       </c>
       <c r="D51">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>40</v>
       </c>
       <c r="E51">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>160.48249999999999</v>
       </c>
       <c r="F51">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G51">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>5.3494166666700003E-2</v>
       </c>
       <c r="H51">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I51">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A51, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A51, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A51, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A51, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A51, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A51, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A51, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A51, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.81866083333299988</v>
+        <f t="shared" si="0"/>
+        <v>0.78545000000004006</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7687,36 +7592,36 @@
         <v>42444.704861111109</v>
       </c>
       <c r="B52">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C52">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>80</v>
       </c>
       <c r="D52">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>80</v>
       </c>
       <c r="E52">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F52">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G52">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H52">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I52">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A52, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A52, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A52, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A52, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A52, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A52, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A52, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A52, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.81866083333299988</v>
+        <f t="shared" si="0"/>
+        <v>0.78545000000004006</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7724,36 +7629,36 @@
         <v>42445.704861111109</v>
       </c>
       <c r="B53">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C53">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D53">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E53">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F53">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>73.747500000000002</v>
       </c>
       <c r="G53">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H53">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>2.45825E-2</v>
       </c>
       <c r="I53">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A53, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A53, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A53, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A53, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A53, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A53, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A53, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A53, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.84324333333299983</v>
+        <f t="shared" si="0"/>
+        <v>0.81003250000004001</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7761,36 +7666,36 @@
         <v>42446.704861111109</v>
       </c>
       <c r="B54">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-160</v>
       </c>
       <c r="C54">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D54">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-160</v>
       </c>
       <c r="E54">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F54">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G54">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H54">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I54">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A54, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A54, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A54, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A54, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A54, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A54, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A54, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A54, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.84324333333299983</v>
+        <f t="shared" si="0"/>
+        <v>0.81003250000004001</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7798,36 +7703,36 @@
         <v>42447.704861111109</v>
       </c>
       <c r="B55">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-80</v>
       </c>
       <c r="C55">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D55">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-80</v>
       </c>
       <c r="E55">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>241.91749999999999</v>
       </c>
       <c r="F55">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G55">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>8.0639166666500006E-2</v>
       </c>
       <c r="H55">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I55">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A55, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A55, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A55, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A55, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A55, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A55, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A55, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A55, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.92388249999899996</v>
+        <f t="shared" si="0"/>
+        <v>0.89067166666653996</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7835,36 +7740,36 @@
         <v>42450.600694444445</v>
       </c>
       <c r="B56">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C56">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D56">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E56">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>79.66</v>
       </c>
       <c r="F56">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G56">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>2.65533333334E-2</v>
       </c>
       <c r="H56">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I56">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A56, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A56, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A56, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A56, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A56, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A56, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A56, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A56, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.95043583333269988</v>
+        <f t="shared" si="0"/>
+        <v>0.91722499999994</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -7872,36 +7777,36 @@
         <v>42451.704861111109</v>
       </c>
       <c r="B57">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-140</v>
       </c>
       <c r="C57">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-140</v>
       </c>
       <c r="E57">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F57">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G57">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H57">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I57">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.95043583333269988</v>
+        <f t="shared" si="0"/>
+        <v>0.91722499999994</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7909,36 +7814,36 @@
         <v>42452.704861111109</v>
       </c>
       <c r="B58">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C58">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D58">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E58">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>164.63000000000002</v>
       </c>
       <c r="F58">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G58">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>5.4876666666660009E-2</v>
       </c>
       <c r="H58">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I58">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.0053124999990002</v>
+        <f t="shared" si="0"/>
+        <v>0.97210166666660003</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7946,36 +7851,36 @@
         <v>42453.704861111109</v>
       </c>
       <c r="B59">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C59">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D59">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E59">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F59">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G59">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H59">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I59">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A59, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A59, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A59, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A59, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A59, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A59, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A59, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A59, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.0053124999990002</v>
+        <f t="shared" si="0"/>
+        <v>0.97210166666660003</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7983,36 +7888,36 @@
         <v>42457.704861111109</v>
       </c>
       <c r="B60">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C60">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D60">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E60">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F60">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G60">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H60">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I60">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A60, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A60, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A60, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A60, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A60, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A60, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A60, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A60, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.0053124999990002</v>
+        <f t="shared" si="0"/>
+        <v>0.97210166666660003</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -8020,36 +7925,36 @@
         <v>42458.704861111109</v>
       </c>
       <c r="B61">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C61">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D61">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E61">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F61">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G61">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H61">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I61">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A61, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A61, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A61, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A61, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A61, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A61, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A61, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A61, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.0053124999990002</v>
+        <f t="shared" si="0"/>
+        <v>0.97210166666660003</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -8057,36 +7962,36 @@
         <v>42459.704861111109</v>
       </c>
       <c r="B62">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C62">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D62">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E62">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F62">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G62">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H62">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I62">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A62, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A62, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A62, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A62, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A62, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A62, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A62, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A62, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.0053124999990002</v>
+        <f t="shared" si="0"/>
+        <v>0.97210166666660003</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -8094,36 +7999,36 @@
         <v>42460.704861111109</v>
       </c>
       <c r="B63">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C63">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D63">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E63">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F63">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G63">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H63">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I63">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A63, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A63, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A63, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A63, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A63, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A63, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A63, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A63, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.0053124999990002</v>
+        <f t="shared" si="0"/>
+        <v>0.97210166666660003</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -8131,36 +8036,36 @@
         <v>42461.704861111109</v>
       </c>
       <c r="B64">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C64">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D64">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E64">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F64">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G64">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H64">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I64">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A64, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A64, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A64, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A64, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A64, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A64, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A64, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A64, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.0053124999990002</v>
+        <f t="shared" si="0"/>
+        <v>0.97210166666660003</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8168,36 +8073,36 @@
         <v>42464.704861111109</v>
       </c>
       <c r="B65">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C65">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>10</v>
       </c>
       <c r="D65">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>10</v>
       </c>
       <c r="E65">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F65">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G65">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H65">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I65">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A65, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A65, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A65, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A65, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A65, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A65, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A65, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A65, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.0053124999990002</v>
+        <f t="shared" si="0"/>
+        <v>0.97210166666660003</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8205,36 +8110,36 @@
         <v>42465.704861111109</v>
       </c>
       <c r="B66">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C66">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D66">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E66">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F66">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>17.82</v>
       </c>
       <c r="G66">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H66">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>5.94E-3</v>
       </c>
       <c r="I66">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A66, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A66, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A66, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A66, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A66, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A66, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A66, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A66, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.011252499999</v>
+        <f t="shared" si="0"/>
+        <v>0.97804166666659997</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -8242,36 +8147,36 @@
         <v>42466.704861111109</v>
       </c>
       <c r="B67">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D67">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F67">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I67">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A67, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A67, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A67, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A67, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A67, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A67, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A67, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A67, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.011252499999</v>
+        <f t="shared" si="0"/>
+        <v>0.97804166666659997</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -8279,36 +8184,36 @@
         <v>42467.704861111109</v>
       </c>
       <c r="B68">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C68">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D68">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E68">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F68">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G68">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H68">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I68">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A68, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A68, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A68, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A68, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A68, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A68, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A68, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A68, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.011252499999</v>
+        <f t="shared" ref="I68:I112" si="1">SUM(G68,H68,I67)</f>
+        <v>0.97804166666659997</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -8316,36 +8221,36 @@
         <v>42468.704861111109</v>
       </c>
       <c r="B69">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C69">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D69">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E69">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F69">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G69">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H69">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I69">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A69, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A69, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A69, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A69, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A69, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A69, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A69, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A69, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.011252499999</v>
+        <f t="shared" si="1"/>
+        <v>0.97804166666659997</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -8353,36 +8258,36 @@
         <v>42471.704861111109</v>
       </c>
       <c r="B70">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C70">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D70">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E70">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F70">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G70">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H70">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I70">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A70, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A70, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A70, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A70, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A70, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A70, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A70, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A70, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.011252499999</v>
+        <f t="shared" si="1"/>
+        <v>0.97804166666659997</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -8390,36 +8295,36 @@
         <v>42472.704861111109</v>
       </c>
       <c r="B71">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C71">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D71">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E71">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F71">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G71">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H71">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I71">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.011252499999</v>
+        <f t="shared" si="1"/>
+        <v>0.97804166666659997</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -8427,36 +8332,36 @@
         <v>42473.704861111109</v>
       </c>
       <c r="B72">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C72">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D72">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E72">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F72">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G72">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H72">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I72">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.011252499999</v>
+        <f t="shared" si="1"/>
+        <v>0.97804166666659997</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -8464,36 +8369,36 @@
         <v>42474.704861111109</v>
       </c>
       <c r="B73">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C73">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D73">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E73">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F73">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G73">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H73">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I73">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.011252499999</v>
+        <f t="shared" si="1"/>
+        <v>0.97804166666659997</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -8501,36 +8406,36 @@
         <v>42475.704861111109</v>
       </c>
       <c r="B74">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C74">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D74">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E74">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F74">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G74">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H74">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I74">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A74, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A74, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A74, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A74, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A74, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A74, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A74, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A74, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.011252499999</v>
+        <f t="shared" si="1"/>
+        <v>0.97804166666659997</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8538,36 +8443,36 @@
         <v>42478.704861111109</v>
       </c>
       <c r="B75">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C75">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D75">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E75">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F75">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G75">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H75">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I75">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A75, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A75, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A75, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A75, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A75, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A75, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A75, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A75, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.011252499999</v>
+        <f t="shared" si="1"/>
+        <v>0.97804166666659997</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -8575,36 +8480,36 @@
         <v>42479.704861111109</v>
       </c>
       <c r="B76">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C76">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D76">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E76">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="F76">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G76">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="H76">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I76">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A76, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A76, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A76, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A76, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A76, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A76, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A76, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A76, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.011252499999</v>
+        <f t="shared" si="1"/>
+        <v>0.97804166666659997</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8612,36 +8517,36 @@
         <v>42480.600694444445</v>
       </c>
       <c r="B77">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-50</v>
       </c>
       <c r="C77">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D77">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-50</v>
       </c>
       <c r="E77">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,5),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
         <v>-1.9</v>
       </c>
       <c r="F77">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G77">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,7),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
         <v>-6.3333333333300001E-4</v>
       </c>
       <c r="H77">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I77">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.010619166666</v>
+        <f t="shared" si="1"/>
+        <v>0.97740833333326693</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8649,36 +8554,36 @@
         <v>42481.704861111109</v>
       </c>
       <c r="B78">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-200</v>
       </c>
       <c r="C78">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D78">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-200</v>
       </c>
       <c r="E78">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-1.9</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F78">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G78">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-6.3333333333300001E-4</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H78">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I78">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.010619166666</v>
+        <f t="shared" si="1"/>
+        <v>0.97740833333326693</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -8686,36 +8591,36 @@
         <v>42482.704861111109</v>
       </c>
       <c r="B79">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-200</v>
       </c>
       <c r="C79">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D79">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-200</v>
       </c>
       <c r="E79">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-1.9</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F79">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G79">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-6.3333333333300001E-4</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H79">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I79">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.010619166666</v>
+        <f t="shared" si="1"/>
+        <v>0.97740833333326693</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -8723,36 +8628,36 @@
         <v>42485.704861111109</v>
       </c>
       <c r="B80">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-200</v>
       </c>
       <c r="C80">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D80">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-200</v>
       </c>
       <c r="E80">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-1.9</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F80">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G80">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-6.3333333333300001E-4</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H80">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I80">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.010619166666</v>
+        <f t="shared" si="1"/>
+        <v>0.97740833333326693</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -8760,36 +8665,36 @@
         <v>42486.704861111109</v>
       </c>
       <c r="B81">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-200</v>
       </c>
       <c r="C81">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D81">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-200</v>
       </c>
       <c r="E81">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-1.9</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F81">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G81">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-6.3333333333300001E-4</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H81">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I81">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.010619166666</v>
+        <f t="shared" si="1"/>
+        <v>0.97740833333326693</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -8797,36 +8702,36 @@
         <v>42487.704861111109</v>
       </c>
       <c r="B82">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-400</v>
       </c>
       <c r="C82">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D82">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-400</v>
       </c>
       <c r="E82">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-1.9</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F82">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G82">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-6.3333333333300001E-4</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H82">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I82">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.010619166666</v>
+        <f t="shared" si="1"/>
+        <v>0.97740833333326693</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8834,36 +8739,36 @@
         <v>42488.704861111109</v>
       </c>
       <c r="B83">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-800</v>
       </c>
       <c r="C83">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D83">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-800</v>
       </c>
       <c r="E83">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-1.9</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F83">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G83">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-6.3333333333300001E-4</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H83">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I83">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.010619166666</v>
+        <f t="shared" si="1"/>
+        <v>0.97740833333326693</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -8871,36 +8776,36 @@
         <v>42489.704861111109</v>
       </c>
       <c r="B84">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-640</v>
       </c>
       <c r="C84">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D84">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-640</v>
       </c>
       <c r="E84">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>-136.30000000000001</v>
       </c>
       <c r="F84">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G84">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>-4.5433333333299998E-2</v>
       </c>
       <c r="H84">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I84">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.96518583333200014</v>
+        <f t="shared" si="1"/>
+        <v>0.93197499999996691</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -8908,36 +8813,36 @@
         <v>42492.704861111109</v>
       </c>
       <c r="B85">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-640</v>
       </c>
       <c r="C85">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D85">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-640</v>
       </c>
       <c r="E85">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F85">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G85">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H85">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I85">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>0.96518583333200014</v>
+        <f t="shared" si="1"/>
+        <v>0.93197499999996691</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -8945,36 +8850,36 @@
         <v>42493.704861111109</v>
       </c>
       <c r="B86">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C86">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D86">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E86">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>583.68999999999994</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>721.89</v>
       </c>
       <c r="F86">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G86">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>0.19456333333336701</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0.24063000000000001</v>
       </c>
       <c r="H86">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I86">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -8982,36 +8887,36 @@
         <v>42494.704861111109</v>
       </c>
       <c r="B87">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C87">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D87">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E87">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F87">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G87">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H87">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I87">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A87, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A87, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A87, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A87, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A87, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A87, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A87, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A87, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -9019,36 +8924,36 @@
         <v>42495.704861111109</v>
       </c>
       <c r="B88">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C88">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D88">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E88">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F88">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G88">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H88">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I88">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A88, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A88, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A88, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A88, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A88, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A88, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A88, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A88, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -9056,36 +8961,36 @@
         <v>42496.704861111109</v>
       </c>
       <c r="B89">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C89">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D89">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E89">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F89">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G89">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H89">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I89">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A89, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A89, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A89, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A89, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A89, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A89, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A89, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A89, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -9093,36 +8998,36 @@
         <v>42499.704861111109</v>
       </c>
       <c r="B90">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C90">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D90">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E90">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F90">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G90">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H90">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I90">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A90, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A90, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A90, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A90, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A90, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A90, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A90, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A90, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -9130,36 +9035,36 @@
         <v>42500.704861111109</v>
       </c>
       <c r="B91">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C91">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D91">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E91">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F91">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G91">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H91">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I91">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A91, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A91, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A91, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A91, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A91, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A91, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A91, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A91, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -9167,36 +9072,36 @@
         <v>42501.704861111109</v>
       </c>
       <c r="B92">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C92">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D92">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E92">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F92">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G92">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H92">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I92">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A92, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A92, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A92, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A92, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A92, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A92, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A92, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A92, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -9204,36 +9109,36 @@
         <v>42502.704861111109</v>
       </c>
       <c r="B93">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-30</v>
       </c>
       <c r="C93">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D93">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-30</v>
       </c>
       <c r="E93">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F93">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G93">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H93">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I93">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A93, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A93, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A93, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A93, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A93, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A93, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A93, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A93, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -9241,36 +9146,36 @@
         <v>42503.704861111109</v>
       </c>
       <c r="B94">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-30</v>
       </c>
       <c r="C94">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D94">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-30</v>
       </c>
       <c r="E94">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F94">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G94">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H94">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I94">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A94, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A94, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A94, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A94, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A94, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A94, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A94, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A94, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -9278,36 +9183,36 @@
         <v>42506.704861111109</v>
       </c>
       <c r="B95">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-60</v>
       </c>
       <c r="C95">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D95">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-60</v>
       </c>
       <c r="E95">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F95">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G95">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H95">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I95">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A95, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A95, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A95, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A95, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A95, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A95, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A95, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A95, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -9315,36 +9220,36 @@
         <v>42507.704861111109</v>
       </c>
       <c r="B96">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-120</v>
       </c>
       <c r="C96">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D96">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-120</v>
       </c>
       <c r="E96">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F96">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G96">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H96">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I96">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A96, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A96, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A96, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A96, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A96, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A96, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A96, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A96, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -9352,36 +9257,36 @@
         <v>42508.704861111109</v>
       </c>
       <c r="B97">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-120</v>
       </c>
       <c r="C97">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D97">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-120</v>
       </c>
       <c r="E97">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-138.20000000000002</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F97">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G97">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-4.6066666666632998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H97">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I97">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A97, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A97, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A97, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A97, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A97, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A97, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A97, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A97, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2058158333319999</v>
+        <f t="shared" si="1"/>
+        <v>1.172604999999967</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -9389,36 +9294,36 @@
         <v>42509.704861111109</v>
       </c>
       <c r="B98">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C98">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D98">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E98">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>5.6274999999999835</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>143.82750000000001</v>
       </c>
       <c r="F98">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G98">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>1.8758333332669977E-3</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>4.7942499999899996E-2</v>
       </c>
       <c r="H98">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I98">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A98, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A98, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A98, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A98, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A98, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A98, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A98, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A98, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2537583333320002</v>
+        <f t="shared" si="1"/>
+        <v>1.2205474999998671</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -9426,36 +9331,36 @@
         <v>42510.600694444445</v>
       </c>
       <c r="B99">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C99">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D99">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E99">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-90.257500000000022</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F99">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G99">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-3.0085833333332999E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H99">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I99">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A99, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A99, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A99, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A99, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A99, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A99, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A99, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A99, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2537583333320002</v>
+        <f t="shared" si="1"/>
+        <v>1.2205474999998671</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -9463,36 +9368,36 @@
         <v>42513.704861111109</v>
       </c>
       <c r="B100">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C100">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D100">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E100">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-90.257500000000022</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F100">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G100">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-3.0085833333332999E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H100">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I100">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A100, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A100, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A100, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A100, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A100, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A100, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A100, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A100, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2537583333320002</v>
+        <f t="shared" si="1"/>
+        <v>1.2205474999998671</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -9500,36 +9405,36 @@
         <v>42514.704861111109</v>
       </c>
       <c r="B101">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C101">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D101">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E101">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-90.257500000000022</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F101">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G101">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-3.0085833333332999E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H101">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I101">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A101, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A101, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A101, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A101, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A101, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A101, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A101, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A101, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2537583333320002</v>
+        <f t="shared" si="1"/>
+        <v>1.2205474999998671</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -9537,36 +9442,36 @@
         <v>42515.704861111109</v>
       </c>
       <c r="B102">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-20</v>
       </c>
       <c r="C102">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D102">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-20</v>
       </c>
       <c r="E102">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-90.257500000000022</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F102">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G102">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-3.0085833333332999E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H102">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I102">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A102, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A102, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A102, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A102, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A102, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A102, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A102, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A102, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2537583333320002</v>
+        <f t="shared" si="1"/>
+        <v>1.2205474999998671</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -9574,36 +9479,36 @@
         <v>42516.704861111109</v>
       </c>
       <c r="B103">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-20</v>
       </c>
       <c r="C103">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D103">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-20</v>
       </c>
       <c r="E103">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-90.257500000000022</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F103">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G103">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-3.0085833333332999E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H103">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I103">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A103, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A103, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A103, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A103, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A103, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A103, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A103, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A103, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2537583333320002</v>
+        <f t="shared" si="1"/>
+        <v>1.2205474999998671</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -9611,36 +9516,36 @@
         <v>42517.704861111109</v>
       </c>
       <c r="B104">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-10</v>
       </c>
       <c r="C104">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D104">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-10</v>
       </c>
       <c r="E104">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-89.357500000000016</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0.9</v>
       </c>
       <c r="F104">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G104">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.9785833333332998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="H104">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I104">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A104, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A104, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A104, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A104, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A104, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A104, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A104, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A104, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2540583333320001</v>
+        <f t="shared" si="1"/>
+        <v>1.2208474999998671</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -9648,36 +9553,36 @@
         <v>42520.538194444445</v>
       </c>
       <c r="B105">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-10</v>
       </c>
       <c r="C105">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D105">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-10</v>
       </c>
       <c r="E105">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-89.357500000000016</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F105">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G105">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.9785833333332998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H105">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I105">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A105, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A105, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A105, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A105, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A105, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A105, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A105, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A105, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2540583333320001</v>
+        <f t="shared" si="1"/>
+        <v>1.2208474999998671</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -9685,36 +9590,36 @@
         <v>42521.704861111109</v>
       </c>
       <c r="B106">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-10</v>
       </c>
       <c r="C106">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D106">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-10</v>
       </c>
       <c r="E106">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-89.357500000000016</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F106">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G106">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.9785833333332998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H106">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I106">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A106, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A106, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A106, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A106, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A106, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A106, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A106, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A106, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2540583333320001</v>
+        <f t="shared" si="1"/>
+        <v>1.2208474999998671</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -9722,36 +9627,36 @@
         <v>42522.704861111109</v>
       </c>
       <c r="B107">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C107">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D107">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E107">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-76.947500000000019</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>12.41</v>
       </c>
       <c r="F107">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G107">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.5649166666662997E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>4.1366666666700002E-3</v>
       </c>
       <c r="H107">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I107">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A107, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A107, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A107, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A107, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A107, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A107, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A107, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A107, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2581949999990001</v>
+        <f t="shared" si="1"/>
+        <v>1.2249841666665371</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -9759,36 +9664,36 @@
         <v>42523.704861111109</v>
       </c>
       <c r="B108">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C108">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D108">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E108">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-89.357500000000016</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F108">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G108">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.9785833333332998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H108">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I108">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A108, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A108, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A108, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A108, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A108, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A108, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A108, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A108, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2581949999990001</v>
+        <f t="shared" si="1"/>
+        <v>1.2249841666665371</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -9796,36 +9701,36 @@
         <v>42527.704861111109</v>
       </c>
       <c r="B109">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C109">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D109">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E109">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-89.357500000000016</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F109">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G109">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.9785833333332998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H109">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I109">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A109, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A109, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A109, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A109, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A109, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A109, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A109, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A109, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2581949999990001</v>
+        <f t="shared" si="1"/>
+        <v>1.2249841666665371</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -9833,36 +9738,36 @@
         <v>42528.704861111109</v>
       </c>
       <c r="B110">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-10</v>
       </c>
       <c r="C110">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D110">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-10</v>
       </c>
       <c r="E110">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-89.357500000000016</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F110">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G110">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.9785833333332998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H110">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I110">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A110, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A110, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A110, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A110, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A110, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A110, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A110, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A110, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2581949999990001</v>
+        <f t="shared" si="1"/>
+        <v>1.2249841666665371</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -9870,36 +9775,36 @@
         <v>42529.704861111109</v>
       </c>
       <c r="B111">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>-20</v>
       </c>
       <c r="C111">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D111">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>-20</v>
       </c>
       <c r="E111">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-89.357500000000016</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="F111">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G111">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.9785833333332998E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>0</v>
       </c>
       <c r="H111">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I111">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A111, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A111, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A111, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A111, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A111, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A111, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A111, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A111, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2581949999990001</v>
+        <f t="shared" si="1"/>
+        <v>1.2249841666665371</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -9907,184 +9812,36 @@
         <v>42530.704861111109</v>
       </c>
       <c r="B112">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,2),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="C112">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,3),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="D112">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,4),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="E112">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-79.757500000000022</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
+        <v>9.6</v>
       </c>
       <c r="F112">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,6),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="G112">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.6585833333332996E-2</v>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="H112">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,8),0))</f>
+        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
         <v>0</v>
       </c>
       <c r="I112">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A112, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A112, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A112, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A112, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A112, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A112, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A112, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A112, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2613949999990002</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1">
-        <v>42531.704861111109</v>
-      </c>
-      <c r="B113">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A113, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A113, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A113, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A113, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A113, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A113, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A113, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A113, '3.11'!$A$2:$I$70,2),0))</f>
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A113, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A113, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A113, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A113, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A113, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A113, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A113, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A113, '3.11'!$A$2:$I$70,3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A113, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A113, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A113, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A113, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A113, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A113, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A113, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A113, '3.11'!$A$2:$I$70,4),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A113, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A113, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A113, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A113, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A113, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A113, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A113, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A113, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-79.757500000000022</v>
-      </c>
-      <c r="F113">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A113, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A113, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A113, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A113, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A113, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A113, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A113, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A113, '3.11'!$A$2:$I$70,6),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A113, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A113, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A113, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A113, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A113, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A113, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A113, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A113, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.6585833333332996E-2</v>
-      </c>
-      <c r="H113">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A113, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A113, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A113, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A113, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A113, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A113, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A113, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A113, '3.11'!$A$2:$I$70,8),0))</f>
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A113, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A113, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A113, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A113, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A113, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A113, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A113, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A113, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2613949999990002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1">
-        <v>42534.704861111109</v>
-      </c>
-      <c r="B114">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A114, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A114, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A114, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A114, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A114, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A114, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A114, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A114, '3.11'!$A$2:$I$70,2),0))</f>
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A114, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A114, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A114, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A114, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A114, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A114, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A114, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A114, '3.11'!$A$2:$I$70,3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A114, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A114, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A114, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A114, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A114, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A114, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A114, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A114, '3.11'!$A$2:$I$70,4),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A114, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A114, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A114, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A114, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A114, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A114, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A114, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A114, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-79.757500000000022</v>
-      </c>
-      <c r="F114">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A114, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A114, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A114, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A114, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A114, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A114, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A114, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A114, '3.11'!$A$2:$I$70,6),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A114, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A114, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A114, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A114, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A114, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A114, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A114, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A114, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.6585833333332996E-2</v>
-      </c>
-      <c r="H114">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A114, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A114, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A114, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A114, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A114, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A114, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A114, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A114, '3.11'!$A$2:$I$70,8),0))</f>
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A114, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A114, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A114, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A114, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A114, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A114, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A114, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A114, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2613949999990002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1">
-        <v>42535.704861111109</v>
-      </c>
-      <c r="B115">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A115, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A115, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A115, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A115, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A115, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A115, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A115, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A115, '3.11'!$A$2:$I$70,2),0))</f>
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A115, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A115, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A115, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A115, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A115, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A115, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A115, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A115, '3.11'!$A$2:$I$70,3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A115, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A115, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A115, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A115, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A115, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A115, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A115, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A115, '3.11'!$A$2:$I$70,4),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A115, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A115, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A115, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A115, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A115, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A115, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A115, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A115, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-79.757500000000022</v>
-      </c>
-      <c r="F115">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A115, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A115, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A115, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A115, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A115, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A115, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A115, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A115, '3.11'!$A$2:$I$70,6),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A115, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A115, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A115, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A115, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A115, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A115, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A115, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A115, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.6585833333332996E-2</v>
-      </c>
-      <c r="H115">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A115, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A115, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A115, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A115, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A115, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A115, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A115, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A115, '3.11'!$A$2:$I$70,8),0))</f>
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A115, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A115, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A115, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A115, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A115, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A115, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A115, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A115, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2613949999990002</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1">
-        <v>42536.704861111109</v>
-      </c>
-      <c r="B116">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A116, '1.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A116, '1.11'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A116, '1.21'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A116, '2.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A116, '2.10'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A116, '2.22'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A116, '3.1'!$A$2:$I$70,2),0), _xlfn.IFNA(VLOOKUP(A116, '3.11'!$A$2:$I$70,2),0))</f>
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A116, '1.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A116, '1.11'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A116, '1.21'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A116, '2.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A116, '2.10'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A116, '2.22'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A116, '3.1'!$A$2:$I$70,3),0), _xlfn.IFNA(VLOOKUP(A116, '3.11'!$A$2:$I$70,3),0))</f>
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A116, '1.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A116, '1.11'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A116, '1.21'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A116, '2.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A116, '2.10'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A116, '2.22'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A116, '3.1'!$A$2:$I$70,4),0), _xlfn.IFNA(VLOOKUP(A116, '3.11'!$A$2:$I$70,4),0))</f>
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A116, '1.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A116, '1.11'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A116, '1.21'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A116, '2.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A116, '2.10'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A116, '2.22'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A116, '3.1'!$A$2:$I$70,5),0), _xlfn.IFNA(VLOOKUP(A116, '3.11'!$A$2:$I$70,5),0))</f>
-        <v>-79.757500000000022</v>
-      </c>
-      <c r="F116">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A116, '1.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A116, '1.11'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A116, '1.21'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A116, '2.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A116, '2.10'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A116, '2.22'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A116, '3.1'!$A$2:$I$70,6),0), _xlfn.IFNA(VLOOKUP(A116, '3.11'!$A$2:$I$70,6),0))</f>
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A116, '1.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A116, '1.11'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A116, '1.21'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A116, '2.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A116, '2.10'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A116, '2.22'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A116, '3.1'!$A$2:$I$70,7),0), _xlfn.IFNA(VLOOKUP(A116, '3.11'!$A$2:$I$70,7),0))</f>
-        <v>-2.6585833333332996E-2</v>
-      </c>
-      <c r="H116">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A116, '1.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A116, '1.11'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A116, '1.21'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A116, '2.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A116, '2.10'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A116, '2.22'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A116, '3.1'!$A$2:$I$70,8),0), _xlfn.IFNA(VLOOKUP(A116, '3.11'!$A$2:$I$70,8),0))</f>
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <f>SUM(_xlfn.IFNA(VLOOKUP(A116, '1.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A116, '1.11'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A116, '1.21'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A116, '2.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A116, '2.10'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A116, '2.22'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A116, '3.1'!$A$2:$I$70,9),0), _xlfn.IFNA(VLOOKUP(A116, '3.11'!$A$2:$I$70,9),0))</f>
-        <v>1.2613949999990002</v>
+        <f t="shared" si="1"/>
+        <v>1.2281841666665372</v>
       </c>
     </row>
   </sheetData>
@@ -15937,7 +15694,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17094,7 +16851,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18244,7 +18001,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Doc/v3/portfolioReturn.xlsx
+++ b/Doc/v3/portfolioReturn.xlsx
@@ -731,7 +731,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-140</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
@@ -773,10 +773,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0</c:v>
@@ -791,31 +791,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-50</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-200</c:v>
+                  <c:v>-170</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-200</c:v>
+                  <c:v>-170</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-200</c:v>
+                  <c:v>-160</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-200</c:v>
+                  <c:v>-170</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-400</c:v>
+                  <c:v>-340</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-800</c:v>
+                  <c:v>-680</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-640</c:v>
+                  <c:v>-520</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-640</c:v>
+                  <c:v>-520</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0</c:v>
@@ -1624,11 +1624,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="198474528"/>
-        <c:axId val="197369016"/>
+        <c:axId val="203945512"/>
+        <c:axId val="256544760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="198474528"/>
+        <c:axId val="203945512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,14 +1671,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197369016"/>
+        <c:crossAx val="256544760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="197369016"/>
+        <c:axId val="256544760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198474528"/>
+        <c:crossAx val="203945512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2401,7 +2401,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-140</c:v>
+                  <c:v>-120</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
@@ -2443,10 +2443,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0</c:v>
@@ -2461,31 +2461,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-50</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-200</c:v>
+                  <c:v>-170</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-200</c:v>
+                  <c:v>-170</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-200</c:v>
+                  <c:v>-160</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-200</c:v>
+                  <c:v>-170</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-400</c:v>
+                  <c:v>-340</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-800</c:v>
+                  <c:v>-680</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-640</c:v>
+                  <c:v>-520</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-640</c:v>
+                  <c:v>-520</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0</c:v>
@@ -2582,11 +2582,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="171988656"/>
-        <c:axId val="197803544"/>
+        <c:axId val="256859624"/>
+        <c:axId val="256125360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="171988656"/>
+        <c:axId val="256859624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,14 +2629,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197803544"/>
+        <c:crossAx val="256125360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="197803544"/>
+        <c:axId val="256125360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171988656"/>
+        <c:crossAx val="256859624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3243,256 +3243,256 @@
                   <c:v>0.23500583333345004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.24161833333346006</c:v>
+                  <c:v>0.27482916666672003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.24161833333346006</c:v>
+                  <c:v>0.27482916666672003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.24161833333346006</c:v>
+                  <c:v>0.27482916666672003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.28209666666676003</c:v>
+                  <c:v>0.31530750000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.28209666666676003</c:v>
+                  <c:v>0.31530750000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.28475666666676003</c:v>
+                  <c:v>0.31796750000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.28475666666676003</c:v>
+                  <c:v>0.31796750000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.28475666666676003</c:v>
+                  <c:v>0.31796750000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.29856583333342002</c:v>
+                  <c:v>0.33177666666667999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.29856583333342002</c:v>
+                  <c:v>0.33177666666667999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.29856583333342002</c:v>
+                  <c:v>0.33177666666667999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.32388250000002</c:v>
+                  <c:v>0.35709333333327997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.32388250000002</c:v>
+                  <c:v>0.35709333333327997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.33244250000001002</c:v>
+                  <c:v>0.36565333333326999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.33527333333334003</c:v>
+                  <c:v>0.3684841666666</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.33527333333334003</c:v>
+                  <c:v>0.3684841666666</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.33527333333334003</c:v>
+                  <c:v>0.3684841666666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.33527333333334003</c:v>
+                  <c:v>0.3684841666666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.73195583333334002</c:v>
+                  <c:v>0.76516666666659994</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.73195583333334002</c:v>
+                  <c:v>0.76516666666659994</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.73195583333334002</c:v>
+                  <c:v>0.76516666666659994</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.73195583333334002</c:v>
+                  <c:v>0.76516666666659994</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.78545000000004006</c:v>
+                  <c:v>0.81866083333329998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.78545000000004006</c:v>
+                  <c:v>0.81866083333329998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.81003250000004001</c:v>
+                  <c:v>0.84324333333329993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.81003250000004001</c:v>
+                  <c:v>0.84324333333329993</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.89067166666653996</c:v>
+                  <c:v>0.92388249999979988</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.91722499999994</c:v>
+                  <c:v>0.95043583333319992</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.91722499999994</c:v>
+                  <c:v>0.95043583333319992</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.97210166666660003</c:v>
+                  <c:v>0.99167083333319994</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.97210166666660003</c:v>
+                  <c:v>0.99167083333319994</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.97210166666660003</c:v>
+                  <c:v>0.99167083333319994</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.97210166666660003</c:v>
+                  <c:v>0.99167083333319994</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.97210166666660003</c:v>
+                  <c:v>0.99167083333319994</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.97210166666660003</c:v>
+                  <c:v>0.99167083333319994</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.97210166666660003</c:v>
+                  <c:v>0.99167083333319994</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.97210166666660003</c:v>
+                  <c:v>0.99167083333319994</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.97804166666659997</c:v>
+                  <c:v>0.99761083333319989</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.97804166666659997</c:v>
+                  <c:v>0.99761083333319989</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.97804166666659997</c:v>
+                  <c:v>0.99761083333319989</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.97804166666659997</c:v>
+                  <c:v>0.99761083333319989</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.97804166666659997</c:v>
+                  <c:v>0.99761083333319989</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.97804166666659997</c:v>
+                  <c:v>0.99761083333319989</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.97804166666659997</c:v>
+                  <c:v>0.99761083333319989</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.97804166666659997</c:v>
+                  <c:v>1.0011241666665298</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.97804166666659997</c:v>
+                  <c:v>1.0011241666665298</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.97804166666659997</c:v>
+                  <c:v>1.0011241666665298</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.97804166666659997</c:v>
+                  <c:v>1.0011241666665298</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.97740833333326693</c:v>
+                  <c:v>1.0004908333331968</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.97740833333326693</c:v>
+                  <c:v>1.0004908333331968</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.97740833333326693</c:v>
+                  <c:v>1.0004908333331968</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.97740833333326693</c:v>
+                  <c:v>1.0041358333331967</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.97740833333326693</c:v>
+                  <c:v>1.0041358333331967</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.97740833333326693</c:v>
+                  <c:v>1.0041358333331967</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.97740833333326693</c:v>
+                  <c:v>1.0041358333331967</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.93197499999996691</c:v>
+                  <c:v>0.95870249999989665</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.93197499999996691</c:v>
+                  <c:v>0.95870249999989665</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.172604999999967</c:v>
+                  <c:v>1.1542583333331966</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.2205474999998671</c:v>
+                  <c:v>1.2022008333330967</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.2205474999998671</c:v>
+                  <c:v>1.2022008333330967</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.2205474999998671</c:v>
+                  <c:v>1.2022008333330967</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.2205474999998671</c:v>
+                  <c:v>1.2022008333330967</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.2205474999998671</c:v>
+                  <c:v>1.2022008333330967</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.2205474999998671</c:v>
+                  <c:v>1.2022008333330967</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.2208474999998671</c:v>
+                  <c:v>1.2025008333330967</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.2208474999998671</c:v>
+                  <c:v>1.2025008333330967</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.2208474999998671</c:v>
+                  <c:v>1.2025008333330967</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.2249841666665371</c:v>
+                  <c:v>1.2066374999997667</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.2249841666665371</c:v>
+                  <c:v>1.2066374999997667</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.2249841666665371</c:v>
+                  <c:v>1.2066374999997667</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.2249841666665371</c:v>
+                  <c:v>1.2066374999997667</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.2249841666665371</c:v>
+                  <c:v>1.2066374999997667</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.2281841666665372</c:v>
+                  <c:v>1.2098374999997668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3508,11 +3508,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="197483592"/>
-        <c:axId val="199646752"/>
+        <c:axId val="256252352"/>
+        <c:axId val="256253760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="197483592"/>
+        <c:axId val="256252352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,14 +3555,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199646752"/>
+        <c:crossAx val="256253760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="199646752"/>
+        <c:axId val="256253760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197483592"/>
+        <c:crossAx val="256252352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5692,7 +5692,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="F29">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
-        <v>19.837499999999999</v>
+        <v>119.47</v>
       </c>
       <c r="G29">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
@@ -6766,11 +6766,11 @@
       </c>
       <c r="H29">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A29, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A29, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
-        <v>6.6125000000100001E-3</v>
+        <v>3.9823333333269997E-2</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>0.24161833333346006</v>
+        <v>0.27482916666672003</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>0.24161833333346006</v>
+        <v>0.27482916666672003</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>0.24161833333346006</v>
+        <v>0.27482916666672003</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>0.28209666666676003</v>
+        <v>0.31530750000002</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>0.28209666666676003</v>
+        <v>0.31530750000002</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>0.28475666666676003</v>
+        <v>0.31796750000002</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>0.28475666666676003</v>
+        <v>0.31796750000002</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>0.28475666666676003</v>
+        <v>0.31796750000002</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>0.29856583333342002</v>
+        <v>0.33177666666667999</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>0.29856583333342002</v>
+        <v>0.33177666666667999</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>0.29856583333342002</v>
+        <v>0.33177666666667999</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>0.32388250000002</v>
+        <v>0.35709333333327997</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>0.32388250000002</v>
+        <v>0.35709333333327997</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>0.33244250000001002</v>
+        <v>0.36565333333326999</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>0.33527333333334003</v>
+        <v>0.3684841666666</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>0.33527333333334003</v>
+        <v>0.3684841666666</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>0.33527333333334003</v>
+        <v>0.3684841666666</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>0.33527333333334003</v>
+        <v>0.3684841666666</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>0.73195583333334002</v>
+        <v>0.76516666666659994</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>0.73195583333334002</v>
+        <v>0.76516666666659994</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7510,7 +7510,7 @@
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>0.73195583333334002</v>
+        <v>0.76516666666659994</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>0.73195583333334002</v>
+        <v>0.76516666666659994</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>0.78545000000004006</v>
+        <v>0.81866083333329998</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>0.78545000000004006</v>
+        <v>0.81866083333329998</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>0.81003250000004001</v>
+        <v>0.84324333333329993</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>0.81003250000004001</v>
+        <v>0.84324333333329993</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>0.89067166666653996</v>
+        <v>0.92388249999979988</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>0.91722499999994</v>
+        <v>0.95043583333319992</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="B57">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>-140</v>
+        <v>-120</v>
       </c>
       <c r="C57">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="D57">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>-140</v>
+        <v>-120</v>
       </c>
       <c r="E57">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A57, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A57, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>0.91722499999994</v>
+        <v>0.95043583333319992</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="E58">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
-        <v>164.63000000000002</v>
+        <v>123.70500000000001</v>
       </c>
       <c r="F58">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="G58">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
-        <v>5.4876666666660009E-2</v>
+        <v>4.1235000000000008E-2</v>
       </c>
       <c r="H58">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A58, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A58, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>0.97210166666660003</v>
+        <v>0.99167083333319994</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>0.97210166666660003</v>
+        <v>0.99167083333319994</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>0.97210166666660003</v>
+        <v>0.99167083333319994</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>0.97210166666660003</v>
+        <v>0.99167083333319994</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7991,7 +7991,7 @@
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>0.97210166666660003</v>
+        <v>0.99167083333319994</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>0.97210166666660003</v>
+        <v>0.99167083333319994</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>0.97210166666660003</v>
+        <v>0.99167083333319994</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>0.97210166666660003</v>
+        <v>0.99167083333319994</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>0.97804166666659997</v>
+        <v>0.99761083333319989</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="I67">
         <f t="shared" si="0"/>
-        <v>0.97804166666659997</v>
+        <v>0.99761083333319989</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -8213,7 +8213,7 @@
       </c>
       <c r="I68">
         <f t="shared" ref="I68:I112" si="1">SUM(G68,H68,I67)</f>
-        <v>0.97804166666659997</v>
+        <v>0.99761083333319989</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="I69">
         <f t="shared" si="1"/>
-        <v>0.97804166666659997</v>
+        <v>0.99761083333319989</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
-        <v>0.97804166666659997</v>
+        <v>0.99761083333319989</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B71">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C71">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="D71">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E71">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A71, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A71, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
-        <v>0.97804166666659997</v>
+        <v>0.99761083333319989</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B72">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C72">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="D72">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E72">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A72, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A72, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="I72">
         <f t="shared" si="1"/>
-        <v>0.97804166666659997</v>
+        <v>0.99761083333319989</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -8382,7 +8382,7 @@
       </c>
       <c r="E73">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
-        <v>0</v>
+        <v>10.54</v>
       </c>
       <c r="F73">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="G73">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
-        <v>0</v>
+        <v>3.5133333333299999E-3</v>
       </c>
       <c r="H73">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A73, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A73, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="I73">
         <f t="shared" si="1"/>
-        <v>0.97804166666659997</v>
+        <v>1.0011241666665298</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
-        <v>0.97804166666659997</v>
+        <v>1.0011241666665298</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="I75">
         <f t="shared" si="1"/>
-        <v>0.97804166666659997</v>
+        <v>1.0011241666665298</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="I76">
         <f t="shared" si="1"/>
-        <v>0.97804166666659997</v>
+        <v>1.0011241666665298</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8518,7 +8518,7 @@
       </c>
       <c r="B77">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="C77">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="D77">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>-50</v>
+        <v>-40</v>
       </c>
       <c r="E77">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A77, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A77, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
@@ -8546,7 +8546,7 @@
       </c>
       <c r="I77">
         <f t="shared" si="1"/>
-        <v>0.97740833333326693</v>
+        <v>1.0004908333331968</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="B78">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>-200</v>
+        <v>-170</v>
       </c>
       <c r="C78">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="D78">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>-200</v>
+        <v>-170</v>
       </c>
       <c r="E78">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A78, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A78, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="I78">
         <f t="shared" si="1"/>
-        <v>0.97740833333326693</v>
+        <v>1.0004908333331968</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="B79">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>-200</v>
+        <v>-170</v>
       </c>
       <c r="C79">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="D79">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>-200</v>
+        <v>-170</v>
       </c>
       <c r="E79">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A79, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A79, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="I79">
         <f t="shared" si="1"/>
-        <v>0.97740833333326693</v>
+        <v>1.0004908333331968</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="B80">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>-200</v>
+        <v>-160</v>
       </c>
       <c r="C80">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -8637,11 +8637,11 @@
       </c>
       <c r="D80">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>-200</v>
+        <v>-160</v>
       </c>
       <c r="E80">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
-        <v>0</v>
+        <v>10.935</v>
       </c>
       <c r="F80">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="G80">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
-        <v>0</v>
+        <v>3.6449999999999998E-3</v>
       </c>
       <c r="H80">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A80, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A80, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I80">
         <f t="shared" si="1"/>
-        <v>0.97740833333326693</v>
+        <v>1.0041358333331967</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -8666,7 +8666,7 @@
       </c>
       <c r="B81">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>-200</v>
+        <v>-170</v>
       </c>
       <c r="C81">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="D81">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>-200</v>
+        <v>-170</v>
       </c>
       <c r="E81">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A81, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A81, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="I81">
         <f t="shared" si="1"/>
-        <v>0.97740833333326693</v>
+        <v>1.0041358333331967</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B82">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>-400</v>
+        <v>-340</v>
       </c>
       <c r="C82">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="D82">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>-400</v>
+        <v>-340</v>
       </c>
       <c r="E82">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A82, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A82, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="I82">
         <f t="shared" si="1"/>
-        <v>0.97740833333326693</v>
+        <v>1.0041358333331967</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8740,7 +8740,7 @@
       </c>
       <c r="B83">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>-800</v>
+        <v>-680</v>
       </c>
       <c r="C83">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="D83">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>-800</v>
+        <v>-680</v>
       </c>
       <c r="E83">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A83, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A83, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
@@ -8768,7 +8768,7 @@
       </c>
       <c r="I83">
         <f t="shared" si="1"/>
-        <v>0.97740833333326693</v>
+        <v>1.0041358333331967</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="B84">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>-640</v>
+        <v>-520</v>
       </c>
       <c r="C84">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="D84">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>-640</v>
+        <v>-520</v>
       </c>
       <c r="E84">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A84, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A84, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I84">
         <f t="shared" si="1"/>
-        <v>0.93197499999996691</v>
+        <v>0.95870249999989665</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="B85">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,2,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,2,FALSE),0))</f>
-        <v>-640</v>
+        <v>-520</v>
       </c>
       <c r="C85">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,3,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,3,FALSE),0))</f>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="D85">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,4,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,4,FALSE),0))</f>
-        <v>-640</v>
+        <v>-520</v>
       </c>
       <c r="E85">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A85, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A85, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="I85">
         <f t="shared" si="1"/>
-        <v>0.93197499999996691</v>
+        <v>0.95870249999989665</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="E86">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,5,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,5,FALSE),0))</f>
-        <v>721.89</v>
+        <v>586.66750000000002</v>
       </c>
       <c r="F86">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,6,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,6,FALSE),0))</f>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="G86">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,7,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,7,FALSE),0))</f>
-        <v>0.24063000000000001</v>
+        <v>0.19555583333330001</v>
       </c>
       <c r="H86">
         <f>SUM(_xlfn.IFNA(VLOOKUP(A86, '1.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.11'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '1.21'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.10'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '2.22'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.1'!$A$2:$I$70,8,FALSE),0), _xlfn.IFNA(VLOOKUP(A86, '3.11'!$A$2:$I$70,8,FALSE),0))</f>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="I86">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="I87">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I88">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="I89">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="I90">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="I91">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="I92">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -9138,7 +9138,7 @@
       </c>
       <c r="I93">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="I94">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="I95">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -9249,7 +9249,7 @@
       </c>
       <c r="I96">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="I97">
         <f t="shared" si="1"/>
-        <v>1.172604999999967</v>
+        <v>1.1542583333331966</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="I98">
         <f t="shared" si="1"/>
-        <v>1.2205474999998671</v>
+        <v>1.2022008333330967</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -9360,7 +9360,7 @@
       </c>
       <c r="I99">
         <f t="shared" si="1"/>
-        <v>1.2205474999998671</v>
+        <v>1.2022008333330967</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="I100">
         <f t="shared" si="1"/>
-        <v>1.2205474999998671</v>
+        <v>1.2022008333330967</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="I101">
         <f t="shared" si="1"/>
-        <v>1.2205474999998671</v>
+        <v>1.2022008333330967</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="I102">
         <f t="shared" si="1"/>
-        <v>1.2205474999998671</v>
+        <v>1.2022008333330967</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -9508,7 +9508,7 @@
       </c>
       <c r="I103">
         <f t="shared" si="1"/>
-        <v>1.2205474999998671</v>
+        <v>1.2022008333330967</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="I104">
         <f t="shared" si="1"/>
-        <v>1.2208474999998671</v>
+        <v>1.2025008333330967</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -9582,7 +9582,7 @@
       </c>
       <c r="I105">
         <f t="shared" si="1"/>
-        <v>1.2208474999998671</v>
+        <v>1.2025008333330967</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="I106">
         <f t="shared" si="1"/>
-        <v>1.2208474999998671</v>
+        <v>1.2025008333330967</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I107">
         <f t="shared" si="1"/>
-        <v>1.2249841666665371</v>
+        <v>1.2066374999997667</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="I108">
         <f t="shared" si="1"/>
-        <v>1.2249841666665371</v>
+        <v>1.2066374999997667</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -9730,7 +9730,7 @@
       </c>
       <c r="I109">
         <f t="shared" si="1"/>
-        <v>1.2249841666665371</v>
+        <v>1.2066374999997667</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="I110">
         <f t="shared" si="1"/>
-        <v>1.2249841666665371</v>
+        <v>1.2066374999997667</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="I111">
         <f t="shared" si="1"/>
-        <v>1.2249841666665371</v>
+        <v>1.2066374999997667</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="I112">
         <f t="shared" si="1"/>
-        <v>1.2281841666665372</v>
+        <v>1.2098374999997668</v>
       </c>
     </row>
   </sheetData>
@@ -9854,8 +9854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10881,13 +10881,13 @@
         <v>42451.704861111109</v>
       </c>
       <c r="B57">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0.129075</v>
@@ -10906,14 +10906,8 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58">
-        <v>20.462499999999999</v>
-      </c>
-      <c r="G58">
-        <v>6.82083333333E-3</v>
-      </c>
       <c r="I58">
-        <v>0.13589583333300001</v>
+        <v>0.129075</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -10930,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0.13589583333300001</v>
+        <v>0.129075</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -10947,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0.13589583333300001</v>
+        <v>0.129075</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -10964,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0.13589583333300001</v>
+        <v>0.129075</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -10981,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0.13589583333300001</v>
+        <v>0.129075</v>
       </c>
     </row>
   </sheetData>
@@ -10994,7 +10988,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12154,7 +12148,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12480,10 +12474,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6.6124999999999998</v>
+        <v>46.51</v>
       </c>
       <c r="H16">
-        <v>2.20416666667E-3</v>
+        <v>1.55033333333E-2</v>
       </c>
       <c r="I16">
         <v>5.80841666667E-2</v>
@@ -13339,7 +13333,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection sqref="A1:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13535,10 +13529,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>6.6124999999999998</v>
+        <v>46.51</v>
       </c>
       <c r="H9">
-        <v>2.20416666667E-3</v>
+        <v>1.55033333333E-2</v>
       </c>
       <c r="I9">
         <v>5.4427499999999997E-2</v>
@@ -14525,7 +14519,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14584,10 +14578,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.6124999999999998</v>
+        <v>26.45</v>
       </c>
       <c r="H2">
-        <v>2.20416666667E-3</v>
+        <v>8.8166666666699995E-3</v>
       </c>
       <c r="I2">
         <v>8.8166666666699995E-3</v>
@@ -15694,7 +15688,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection sqref="A1:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16851,7 +16845,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection sqref="A1:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17156,13 +17150,13 @@
         <v>42451.704861111109</v>
       </c>
       <c r="B16">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>6.6381666666700007E-2</v>
@@ -17181,14 +17175,8 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>20.462499999999999</v>
-      </c>
-      <c r="G17">
-        <v>6.82083333333E-3</v>
-      </c>
       <c r="I17">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -17205,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -17222,7 +17210,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -17239,7 +17227,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -17256,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -17273,7 +17261,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -17290,7 +17278,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -17307,7 +17295,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -17324,7 +17312,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -17341,7 +17329,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -17358,7 +17346,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -17375,7 +17363,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -17392,7 +17380,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -17400,16 +17388,16 @@
         <v>42472.704861111109</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I30">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -17417,16 +17405,16 @@
         <v>42473.704861111109</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="I31">
-        <v>7.3202500000000004E-2</v>
+        <v>6.6381666666700007E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -17442,8 +17430,14 @@
       <c r="D32">
         <v>0</v>
       </c>
+      <c r="E32">
+        <v>10.54</v>
+      </c>
+      <c r="G32">
+        <v>3.5133333333299999E-3</v>
+      </c>
       <c r="I32">
-        <v>7.3202500000000004E-2</v>
+        <v>6.9894999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -17460,7 +17454,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>7.3202500000000004E-2</v>
+        <v>6.9894999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -17477,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>7.3202500000000004E-2</v>
+        <v>6.9894999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -17494,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>7.3202500000000004E-2</v>
+        <v>6.9894999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -17502,16 +17496,16 @@
         <v>42480.600694444445</v>
       </c>
       <c r="B36">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>7.3202500000000004E-2</v>
+        <v>6.9894999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -17519,16 +17513,16 @@
         <v>42481.704861111109</v>
       </c>
       <c r="B37">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="I37">
-        <v>7.3202500000000004E-2</v>
+        <v>6.9894999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -17536,16 +17530,16 @@
         <v>42482.704861111109</v>
       </c>
       <c r="B38">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="I38">
-        <v>7.3202500000000004E-2</v>
+        <v>6.9894999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -17553,16 +17547,22 @@
         <v>42485.704861111109</v>
       </c>
       <c r="B39">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>-40</v>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>10.935</v>
+      </c>
+      <c r="G39">
+        <v>3.6449999999999998E-3</v>
       </c>
       <c r="I39">
-        <v>7.3202500000000004E-2</v>
+        <v>7.3539999999999994E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -17570,16 +17570,16 @@
         <v>42486.704861111109</v>
       </c>
       <c r="B40">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>-40</v>
+        <v>-10</v>
       </c>
       <c r="I40">
-        <v>7.3202500000000004E-2</v>
+        <v>7.3539999999999994E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -17587,16 +17587,16 @@
         <v>42487.704861111109</v>
       </c>
       <c r="B41">
-        <v>-80</v>
+        <v>-20</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>-80</v>
+        <v>-20</v>
       </c>
       <c r="I41">
-        <v>7.3202500000000004E-2</v>
+        <v>7.3539999999999994E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -17604,16 +17604,16 @@
         <v>42488.704861111109</v>
       </c>
       <c r="B42">
-        <v>-160</v>
+        <v>-40</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>-160</v>
+        <v>-40</v>
       </c>
       <c r="I42">
-        <v>7.3202500000000004E-2</v>
+        <v>7.3539999999999994E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -17621,16 +17621,16 @@
         <v>42489.704861111109</v>
       </c>
       <c r="B43">
-        <v>-160</v>
+        <v>-40</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>-160</v>
+        <v>-40</v>
       </c>
       <c r="I43">
-        <v>7.3202500000000004E-2</v>
+        <v>7.3539999999999994E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -17638,16 +17638,16 @@
         <v>42492.704861111109</v>
       </c>
       <c r="B44">
-        <v>-160</v>
+        <v>-40</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>-160</v>
+        <v>-40</v>
       </c>
       <c r="I44">
-        <v>7.3202500000000004E-2</v>
+        <v>7.3539999999999994E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -17664,13 +17664,13 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>180.4725</v>
+        <v>45.25</v>
       </c>
       <c r="G45">
-        <v>6.0157500000000003E-2</v>
+        <v>1.50833333333E-2</v>
       </c>
       <c r="I45">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -17704,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -17721,7 +17721,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -17738,7 +17738,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -17755,7 +17755,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -17789,7 +17789,7 @@
         <v>-10</v>
       </c>
       <c r="I52">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -17806,7 +17806,7 @@
         <v>-10</v>
       </c>
       <c r="I53">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -17823,7 +17823,7 @@
         <v>-20</v>
       </c>
       <c r="I54">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -17840,7 +17840,7 @@
         <v>-40</v>
       </c>
       <c r="I55">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -17857,7 +17857,7 @@
         <v>-40</v>
       </c>
       <c r="I56">
-        <v>0.13336000000000001</v>
+        <v>8.8623333333299997E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -17880,7 +17880,7 @@
         <v>1.5980833333299999E-2</v>
       </c>
       <c r="I57">
-        <v>0.14934083333299999</v>
+        <v>0.104604166667</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -17897,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0.14934083333299999</v>
+        <v>0.104604166667</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0.14934083333299999</v>
+        <v>0.104604166667</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -17931,7 +17931,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0.14934083333299999</v>
+        <v>0.104604166667</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -17948,7 +17948,7 @@
         <v>-10</v>
       </c>
       <c r="I61">
-        <v>0.14934083333299999</v>
+        <v>0.104604166667</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -17965,7 +17965,7 @@
         <v>-10</v>
       </c>
       <c r="I62">
-        <v>0.14934083333299999</v>
+        <v>0.104604166667</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -17988,7 +17988,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="I63">
-        <v>0.14964083333299999</v>
+        <v>0.104904166667</v>
       </c>
     </row>
   </sheetData>
@@ -18000,8 +18000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
